--- a/ch16_excel/data_chart_in_excel1.xlsx
+++ b/ch16_excel/data_chart_in_excel1.xlsx
@@ -1,45 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
-  </bookViews>
+  <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>제품1</t>
-  </si>
-  <si>
-    <t>제품2</t>
-  </si>
-  <si>
-    <t>시간</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -54,7 +30,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -62,199 +38,19 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$2:$C$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="50010001"/>
-        <c:axId val="50010002"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="50010001"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50010002"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="50010002"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50010001"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -332,6 +128,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -366,6 +163,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -400,20 +198,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -535,7 +329,46 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
@@ -544,100 +377,100 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
+    <row r="1">
+      <c r="A1" t="str">
+        <v>시간</v>
+      </c>
+      <c r="B1" t="str">
+        <v>제품1</v>
+      </c>
+      <c r="C1" t="str">
+        <v>제품2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
         <v>9</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="str">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="str">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
+    <row r="3">
+      <c r="A3" t="str">
         <v>10</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="str">
         <v>15</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="str">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
+    <row r="4">
+      <c r="A4" t="str">
         <v>11</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="str">
         <v>12</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="str">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
+    <row r="5">
+      <c r="A5" t="str">
         <v>12</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="str">
         <v>11</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="str">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
+    <row r="6">
+      <c r="A6" t="str">
         <v>13</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="str">
         <v>12</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="str">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
+    <row r="7">
+      <c r="A7" t="str">
         <v>14</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="str">
         <v>14</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="str">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
+    <row r="8">
+      <c r="A8" t="str">
         <v>15</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="str">
         <v>13</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="str">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:C8"/>
+  </ignoredErrors>
 </worksheet>
 </file>